--- a/data/trans_orig/P21D6_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>138806</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130678</v>
+        <v>130230</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>144395</v>
+        <v>144861</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8996625314679612</v>
+        <v>0.8996625314679614</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8469831145778854</v>
+        <v>0.8440737064376519</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9358836593516362</v>
+        <v>0.9389078077955193</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>192</v>
@@ -762,19 +762,19 @@
         <v>114154</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105798</v>
+        <v>104509</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>120774</v>
+        <v>120940</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8229782284644528</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7627337314444261</v>
+        <v>0.7534426346385689</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8707039671535964</v>
+        <v>0.8718998376188661</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>327</v>
@@ -783,19 +783,19 @@
         <v>252961</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>240603</v>
+        <v>242495</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>261994</v>
+        <v>262813</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8633590043087734</v>
+        <v>0.8633590043087733</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8211803227766349</v>
+        <v>0.827637631875705</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8941894415834813</v>
+        <v>0.8969843943893183</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>15481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9892</v>
+        <v>9426</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23609</v>
+        <v>24057</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1003374685320386</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06411634064836395</v>
+        <v>0.06109219220448053</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1530168854221147</v>
+        <v>0.1559262935623482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -833,19 +833,19 @@
         <v>23082</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16743</v>
+        <v>16299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31095</v>
+        <v>32389</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1664075703596737</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1207026345268829</v>
+        <v>0.1175077581136309</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2241758763939162</v>
+        <v>0.233502820855922</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -854,19 +854,19 @@
         <v>38563</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29348</v>
+        <v>29032</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51149</v>
+        <v>49543</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1316160697863283</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1001663019272676</v>
+        <v>0.09908607539817099</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1745722698859106</v>
+        <v>0.1690903382669444</v>
       </c>
     </row>
     <row r="6">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2950</v>
+        <v>2978</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003512795746972103</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02126408063088123</v>
+        <v>0.02147299322631129</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2047</v>
+        <v>2757</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001663011474448002</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.006985994601305108</v>
+        <v>0.009410592625744722</v>
       </c>
     </row>
     <row r="7">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3107</v>
+        <v>3545</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007101405428901332</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02240294567161982</v>
+        <v>0.02555611585881688</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3568</v>
+        <v>3982</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003361914430450384</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01217927673526445</v>
+        <v>0.01359211912462057</v>
       </c>
     </row>
     <row r="8">
@@ -1084,19 +1084,19 @@
         <v>165352</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>147623</v>
+        <v>144956</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>180953</v>
+        <v>180491</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7491156330377613</v>
+        <v>0.7491156330377614</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6687977434277055</v>
+        <v>0.6567151949588735</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8197974785664938</v>
+        <v>0.8177034321753094</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>234</v>
@@ -1105,19 +1105,19 @@
         <v>186718</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>174217</v>
+        <v>174786</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>198383</v>
+        <v>198663</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.7423329597060287</v>
+        <v>0.7423329597060286</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6926328546644225</v>
+        <v>0.6948948431341696</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7887112227822572</v>
+        <v>0.7898232149522897</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>354</v>
@@ -1126,19 +1126,19 @@
         <v>352069</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>329377</v>
+        <v>332791</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>372206</v>
+        <v>373042</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7455031197060495</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6974535992816477</v>
+        <v>0.7046822874443213</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7881428234165755</v>
+        <v>0.7899141571835765</v>
       </c>
     </row>
     <row r="10">
@@ -1155,19 +1155,19 @@
         <v>29526</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18407</v>
+        <v>17612</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47890</v>
+        <v>46721</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1337649610615849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08338994151945146</v>
+        <v>0.07979017583907437</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2169636314269314</v>
+        <v>0.2116672832229363</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -1176,19 +1176,19 @@
         <v>30695</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22336</v>
+        <v>22169</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40465</v>
+        <v>40819</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1220345063491938</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0888030883721759</v>
+        <v>0.08813630034219451</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1608782820501696</v>
+        <v>0.1622840252300978</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -1197,19 +1197,19 @@
         <v>60221</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45261</v>
+        <v>45807</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78285</v>
+        <v>78539</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1275172144927951</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09583889822059335</v>
+        <v>0.09699657995247736</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1657675455562773</v>
+        <v>0.1663063294640064</v>
       </c>
     </row>
     <row r="11">
@@ -1226,19 +1226,19 @@
         <v>20795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12276</v>
+        <v>12185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33634</v>
+        <v>34895</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0942125834281151</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05561578722481494</v>
+        <v>0.05520215963216907</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1523780465588943</v>
+        <v>0.1580913345863599</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -1247,19 +1247,19 @@
         <v>31607</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23401</v>
+        <v>23381</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41432</v>
+        <v>41777</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1256592775146505</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0930370190028489</v>
+        <v>0.09295729917707996</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1647199455673702</v>
+        <v>0.1660944319722372</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>60</v>
@@ -1268,19 +1268,19 @@
         <v>52402</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>39981</v>
+        <v>39699</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>68048</v>
+        <v>67465</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1109613779033537</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08465988158970912</v>
+        <v>0.08406140379176798</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1440905996686122</v>
+        <v>0.1428569730860732</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>5056</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1779</v>
+        <v>1258</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13671</v>
+        <v>13367</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02290682247253868</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008060462242538905</v>
+        <v>0.005699252103944317</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06193573676337032</v>
+        <v>0.06055621148275838</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1318,19 +1318,19 @@
         <v>2509</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6195</v>
+        <v>5815</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.009973256430126903</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002427808302172037</v>
+        <v>0.002446537481552352</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02462834463472004</v>
+        <v>0.02311798518154904</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1339,19 +1339,19 @@
         <v>7565</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3460</v>
+        <v>3711</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15171</v>
+        <v>15735</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.01601828789780158</v>
+        <v>0.01601828789780157</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007327253141735274</v>
+        <v>0.007857180622244855</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03212450123138228</v>
+        <v>0.03331977837708704</v>
       </c>
     </row>
     <row r="13">
@@ -1443,19 +1443,19 @@
         <v>85669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>79519</v>
+        <v>79065</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89603</v>
+        <v>89270</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9206361395107538</v>
+        <v>0.920636139510754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8545489422382165</v>
+        <v>0.8496720430005859</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.962914226996392</v>
+        <v>0.959337625415894</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>191</v>
@@ -1464,19 +1464,19 @@
         <v>125987</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>118150</v>
+        <v>118703</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>131626</v>
+        <v>132643</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8609107346289869</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8073579174370012</v>
+        <v>0.8111356721412687</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8994409011488785</v>
+        <v>0.9063906807618707</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>295</v>
@@ -1485,19 +1485,19 @@
         <v>211656</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>203266</v>
+        <v>202530</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>219554</v>
+        <v>219001</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8841260808548072</v>
+        <v>0.8841260808548073</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8490787887164798</v>
+        <v>0.8460044628365517</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9171179183307941</v>
+        <v>0.9148070795327859</v>
       </c>
     </row>
     <row r="15">
@@ -1514,19 +1514,19 @@
         <v>5541</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2435</v>
+        <v>2608</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11436</v>
+        <v>11560</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05954103905747246</v>
+        <v>0.05954103905747247</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02616587899921871</v>
+        <v>0.02802382025740623</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1228934460083814</v>
+        <v>0.1242284503910364</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>17</v>
@@ -1535,19 +1535,19 @@
         <v>11118</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6897</v>
+        <v>6613</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17481</v>
+        <v>16746</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07597196687730924</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04713066895988827</v>
+        <v>0.04518830084890428</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1194509036094216</v>
+        <v>0.1144330428320467</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>24</v>
@@ -1556,19 +1556,19 @@
         <v>16658</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10811</v>
+        <v>10738</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>24230</v>
+        <v>25083</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06958524285418888</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.045158608171656</v>
+        <v>0.04485527628235209</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.101214023766044</v>
+        <v>0.1047743800403363</v>
       </c>
     </row>
     <row r="16">
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6915</v>
+        <v>6338</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01982282143177352</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07431360545780871</v>
+        <v>0.0681144661322976</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1653,19 +1653,19 @@
         <v>9237</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5574</v>
+        <v>5338</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14763</v>
+        <v>14452</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06311729849370373</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03808893890138924</v>
+        <v>0.03647735071509407</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1008802254915748</v>
+        <v>0.09875333227146045</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -1674,19 +1674,19 @@
         <v>11081</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6786</v>
+        <v>6911</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17738</v>
+        <v>17513</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04628867629100391</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02834600705755639</v>
+        <v>0.02886797860742847</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07409630323774991</v>
+        <v>0.0731550835564594</v>
       </c>
     </row>
     <row r="18">
@@ -1778,19 +1778,19 @@
         <v>147098</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>130852</v>
+        <v>131946</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>156615</v>
+        <v>156793</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.84316334995218</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7500419715382753</v>
+        <v>0.7563102087811476</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8977143776979412</v>
+        <v>0.8987327595944379</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>227</v>
@@ -1799,19 +1799,19 @@
         <v>170401</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>160100</v>
+        <v>160436</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>178145</v>
+        <v>179041</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8456299526994827</v>
+        <v>0.8456299526994828</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7945076479775934</v>
+        <v>0.7961775507320131</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8840609116856106</v>
+        <v>0.8885032326596303</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>335</v>
@@ -1820,19 +1820,19 @@
         <v>317499</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>300906</v>
+        <v>300683</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>330681</v>
+        <v>331470</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8444853782290674</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8003488110740201</v>
+        <v>0.7997567063150377</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.879545972364597</v>
+        <v>0.8816434052995682</v>
       </c>
     </row>
     <row r="20">
@@ -1849,19 +1849,19 @@
         <v>21831</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12372</v>
+        <v>11789</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>36668</v>
+        <v>36111</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1251353183786685</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07091656381589627</v>
+        <v>0.0675762518992863</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2101772551134661</v>
+        <v>0.2069900064566955</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -1870,19 +1870,19 @@
         <v>28626</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20989</v>
+        <v>20082</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38384</v>
+        <v>38571</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1420593475829141</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1041608443881664</v>
+        <v>0.09965872584692212</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1904859292843632</v>
+        <v>0.1914118550115047</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>63</v>
@@ -1891,19 +1891,19 @@
         <v>50457</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>37540</v>
+        <v>36938</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>67328</v>
+        <v>66457</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1342061122839081</v>
+        <v>0.134206112283908</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09984811825122658</v>
+        <v>0.09824722043366116</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1790802117676483</v>
+        <v>0.1767611163470341</v>
       </c>
     </row>
     <row r="21">
@@ -1920,19 +1920,19 @@
         <v>3800</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>888</v>
+        <v>1256</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10287</v>
+        <v>10804</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02178189356470205</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005088336526724433</v>
+        <v>0.007202205551243395</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05896225733073845</v>
+        <v>0.06193097109079872</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1941,19 +1941,19 @@
         <v>1296</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3940</v>
+        <v>3738</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.006433391325505271</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.00197559959659674</v>
+        <v>0.002048416858018192</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01955370189461444</v>
+        <v>0.0185483524665961</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -1962,19 +1962,19 @@
         <v>5096</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1898</v>
+        <v>2324</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13459</v>
+        <v>13120</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01355553689244249</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0050495126450562</v>
+        <v>0.006182236176682556</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03579811916812189</v>
+        <v>0.03489694893705356</v>
       </c>
     </row>
     <row r="22">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6767</v>
+        <v>6620</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009919438104449388</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03878678922330315</v>
+        <v>0.03794507407686153</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4264</v>
+        <v>4065</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005877308392097803</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02116115099238707</v>
+        <v>0.02017059316764292</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -2033,19 +2033,19 @@
         <v>2915</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>857</v>
+        <v>1029</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6950</v>
+        <v>7738</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007752972594582009</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002279712603440438</v>
+        <v>0.002736326232184937</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01848652004395102</v>
+        <v>0.02058161584940636</v>
       </c>
     </row>
     <row r="23">
@@ -2137,19 +2137,19 @@
         <v>78896</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>72973</v>
+        <v>73051</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>82002</v>
+        <v>82231</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9345496400164991</v>
+        <v>0.9345496400164992</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8643995329289587</v>
+        <v>0.8653218353909637</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9713439272977605</v>
+        <v>0.9740533961432303</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>156</v>
@@ -2158,19 +2158,19 @@
         <v>74698</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>67515</v>
+        <v>67177</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>77666</v>
+        <v>77556</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9409617102767265</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8504776622309058</v>
+        <v>0.8462213617361963</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9783409767738445</v>
+        <v>0.9769578644847254</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>257</v>
@@ -2179,19 +2179,19 @@
         <v>153594</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>145350</v>
+        <v>145475</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>158445</v>
+        <v>158050</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.937657123085237</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8873284414143491</v>
+        <v>0.8880951218311333</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9672708947492024</v>
+        <v>0.9648603300561108</v>
       </c>
     </row>
     <row r="25">
@@ -2208,19 +2208,19 @@
         <v>4791</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2000</v>
+        <v>1784</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10221</v>
+        <v>9970</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05675075325327514</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02368718608540499</v>
+        <v>0.02113084036221695</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.12107048389816</v>
+        <v>0.1180929463405211</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2229,19 +2229,19 @@
         <v>3815</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1112</v>
+        <v>1211</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12002</v>
+        <v>11893</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0480560388825086</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01400342457566786</v>
+        <v>0.01525982498562528</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1511858168421873</v>
+        <v>0.1498133112855385</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -2250,19 +2250,19 @@
         <v>8606</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4216</v>
+        <v>4387</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17203</v>
+        <v>16944</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05253703185002453</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02573536860581161</v>
+        <v>0.02678346448060421</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1050206076419034</v>
+        <v>0.1034380257501569</v>
       </c>
     </row>
     <row r="26">
@@ -2282,16 +2282,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4513</v>
+        <v>3208</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.008699606730225571</v>
+        <v>0.00869960673022557</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05346032389947732</v>
+        <v>0.03800587621279004</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2975</v>
+        <v>2741</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01098225084076473</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03747830605662366</v>
+        <v>0.03452506678516335</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -2321,19 +2321,19 @@
         <v>1606</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4677</v>
+        <v>4840</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009805845064738547</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002591606063585671</v>
+        <v>0.002611905758264671</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02855342646111341</v>
+        <v>0.02954799116379105</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>115837</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>108880</v>
+        <v>109821</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>120219</v>
+        <v>120673</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9132112190593239</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8583663461336724</v>
+        <v>0.8657804181708272</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9477559420897922</v>
+        <v>0.9513312534039933</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>167</v>
@@ -2493,19 +2493,19 @@
         <v>94169</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>87548</v>
+        <v>87286</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>99588</v>
+        <v>99817</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8281097482959208</v>
+        <v>0.8281097482959207</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7698810374763388</v>
+        <v>0.7675805758592332</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.875757923730943</v>
+        <v>0.8777748086450894</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>330</v>
@@ -2514,19 +2514,19 @@
         <v>210007</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>200838</v>
+        <v>200660</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>218298</v>
+        <v>218107</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8729829444789201</v>
+        <v>0.87298294447892</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8348717445185001</v>
+        <v>0.8341301882794439</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.907448906045738</v>
+        <v>0.9066545560150145</v>
       </c>
     </row>
     <row r="30">
@@ -2543,19 +2543,19 @@
         <v>10501</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6266</v>
+        <v>5840</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17598</v>
+        <v>16724</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.08278850249094451</v>
+        <v>0.08278850249094449</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04939498055519538</v>
+        <v>0.04603965574099417</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1387327578705281</v>
+        <v>0.1318482543698375</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>31</v>
@@ -2564,19 +2564,19 @@
         <v>18666</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12978</v>
+        <v>13214</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>25102</v>
+        <v>25730</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1641443463307063</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1141227320187802</v>
+        <v>0.1161997538756895</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2207396718201019</v>
+        <v>0.2262663227692568</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>44</v>
@@ -2585,19 +2585,19 @@
         <v>29167</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>21202</v>
+        <v>21286</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>38535</v>
+        <v>38373</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1212461836020661</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0881362352966583</v>
+        <v>0.0884830974668252</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1601889473195331</v>
+        <v>0.1595129324593849</v>
       </c>
     </row>
     <row r="31">
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2590</v>
+        <v>2964</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.004000278449731562</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0204199701994412</v>
+        <v>0.02336790772699526</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2483</v>
+        <v>1941</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003262267619007504</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02183941698076416</v>
+        <v>0.0170662831396863</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3140</v>
+        <v>3145</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003651413711256951</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01305431693531744</v>
+        <v>0.01307518110704916</v>
       </c>
     </row>
     <row r="32">
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2206</v>
+        <v>3279</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004483637754365417</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01939889324492587</v>
+        <v>0.02883484309125303</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2769</v>
+        <v>2564</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.002119458207756886</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01151230415152338</v>
+        <v>0.01065838269150948</v>
       </c>
     </row>
     <row r="33">
@@ -2823,19 +2823,19 @@
         <v>313606</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>295777</v>
+        <v>295537</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>326232</v>
+        <v>325720</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8914237825167379</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8407423119006809</v>
+        <v>0.8400615729453437</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9273119460196079</v>
+        <v>0.9258561022146874</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>386</v>
@@ -2844,19 +2844,19 @@
         <v>315514</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>302095</v>
+        <v>303099</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>325780</v>
+        <v>325799</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.885831242298345</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8481553493382812</v>
+        <v>0.850972867764856</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9146532234411231</v>
+        <v>0.914704972815706</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>641</v>
@@ -2865,19 +2865,19 @@
         <v>629121</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>607242</v>
+        <v>607284</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>644954</v>
+        <v>644984</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.8886102318021986</v>
+        <v>0.8886102318021984</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8577070691362846</v>
+        <v>0.857765699816995</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9109734485670979</v>
+        <v>0.9110165554902736</v>
       </c>
     </row>
     <row r="35">
@@ -2894,19 +2894,19 @@
         <v>36005</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>23381</v>
+        <v>23895</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>52828</v>
+        <v>53746</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.1023451210926205</v>
+        <v>0.1023451210926204</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0664613630276813</v>
+        <v>0.06792084819968484</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1501634137987661</v>
+        <v>0.1527730091258874</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>37</v>
@@ -2915,19 +2915,19 @@
         <v>28854</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>20462</v>
+        <v>20794</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>39132</v>
+        <v>39680</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.08100912248334892</v>
+        <v>0.08100912248334893</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05744902252603494</v>
+        <v>0.05838141651407718</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1098649363450288</v>
+        <v>0.1114035280980517</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>64</v>
@@ -2936,19 +2936,19 @@
         <v>64859</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>50702</v>
+        <v>49450</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>85267</v>
+        <v>84448</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09161119486441054</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07161483458964032</v>
+        <v>0.06984681308709795</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1204371710921237</v>
+        <v>0.1192797752345156</v>
       </c>
     </row>
     <row r="36">
@@ -2968,16 +2968,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7664</v>
+        <v>7930</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.006231096390641736</v>
+        <v>0.006231096390641735</v>
       </c>
       <c r="H36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02178502701645147</v>
+        <v>0.02254197224674197</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -2986,19 +2986,19 @@
         <v>5921</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2254</v>
+        <v>2157</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>14926</v>
+        <v>14631</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01662422984051679</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.006326959869495781</v>
+        <v>0.006055842837891351</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04190494615084483</v>
+        <v>0.0410782775695769</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -3007,19 +3007,19 @@
         <v>8113</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3452</v>
+        <v>3615</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>17592</v>
+        <v>17459</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01145977725877891</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.004875836583516463</v>
+        <v>0.005106342245231172</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02484740493590175</v>
+        <v>0.02466065575755483</v>
       </c>
     </row>
     <row r="37">
@@ -3049,19 +3049,19 @@
         <v>5890</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2709</v>
+        <v>2606</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>12734</v>
+        <v>13248</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01653540537778926</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.007606726842257007</v>
+        <v>0.007315907617203753</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03575073036004023</v>
+        <v>0.03719530181638685</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>7</v>
@@ -3070,19 +3070,19 @@
         <v>5890</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2182</v>
+        <v>2146</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>11401</v>
+        <v>12276</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.008318796074611999</v>
+        <v>0.008318796074611997</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.003082421758801459</v>
+        <v>0.003031710132626174</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01610365328752703</v>
+        <v>0.01733917757752539</v>
       </c>
     </row>
     <row r="38">
@@ -3174,19 +3174,19 @@
         <v>342055</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>331268</v>
+        <v>332394</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>349658</v>
+        <v>349641</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.948396909836042</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.918486568804635</v>
+        <v>0.9216103451790693</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9694754907077306</v>
+        <v>0.9694280128877117</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>491</v>
@@ -3195,19 +3195,19 @@
         <v>390300</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>382838</v>
+        <v>381606</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>396363</v>
+        <v>395567</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.9572546890741989</v>
+        <v>0.957254689074199</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.9389517219050384</v>
+        <v>0.9359311134811783</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.9721234491442565</v>
+        <v>0.970171414734019</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>807</v>
@@ -3216,19 +3216,19 @@
         <v>732356</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>718548</v>
+        <v>720041</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>741762</v>
+        <v>742711</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.9530970549300101</v>
+        <v>0.95309705493001</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.9351271504189447</v>
+        <v>0.9370702117229134</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.9653381164279738</v>
+        <v>0.9665735613819917</v>
       </c>
     </row>
     <row r="40">
@@ -3245,19 +3245,19 @@
         <v>15652</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>9023</v>
+        <v>8881</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>25449</v>
+        <v>24489</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0433984094400858</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02501697329833484</v>
+        <v>0.02462431762817555</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07056058416092563</v>
+        <v>0.06789937898685389</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>24</v>
@@ -3266,19 +3266,19 @@
         <v>16813</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>10845</v>
+        <v>11516</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>24476</v>
+        <v>24746</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04123678984770848</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02659961258013297</v>
+        <v>0.02824464538791996</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06003040759823743</v>
+        <v>0.06069311589043126</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>39</v>
@@ -3287,19 +3287,19 @@
         <v>32466</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>23950</v>
+        <v>23196</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>46315</v>
+        <v>43949</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04225140346387331</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03116818126786728</v>
+        <v>0.03018777734964836</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06027471087579785</v>
+        <v>0.05719574117358778</v>
       </c>
     </row>
     <row r="41">
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>10592</v>
+        <v>9998</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008204680723872091</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02936791747391355</v>
+        <v>0.02772205377842896</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>10343</v>
+        <v>9967</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.003851084995750993</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01346077583989459</v>
+        <v>0.0129716210186377</v>
       </c>
     </row>
     <row r="42">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3462</v>
+        <v>2829</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.001508521078092439</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.008489971317272681</v>
+        <v>0.006937827502740678</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3113</v>
+        <v>3093</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.000800456610365752</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.004050910597882438</v>
+        <v>0.004025209459617612</v>
       </c>
     </row>
     <row r="43">
@@ -3517,19 +3517,19 @@
         <v>1387320</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1355205</v>
+        <v>1353496</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1413598</v>
+        <v>1411681</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.8857485931160735</v>
+        <v>0.8857485931160733</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8652448955773668</v>
+        <v>0.8641534439781529</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9025260851871433</v>
+        <v>0.9013022206870045</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2044</v>
@@ -3538,19 +3538,19 @@
         <v>1471945</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1444546</v>
+        <v>1447409</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1495302</v>
+        <v>1495384</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8683538576187758</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8521901730896088</v>
+        <v>0.8538791328934012</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8821332671894024</v>
+        <v>0.8821813539598369</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3346</v>
@@ -3559,19 +3559,19 @@
         <v>2859264</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2815404</v>
+        <v>2815547</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2893970</v>
+        <v>2892263</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.87670766310073</v>
+        <v>0.8767076631007301</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8632595154052809</v>
+        <v>0.8633031289824943</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8873492545577654</v>
+        <v>0.8868260030810007</v>
       </c>
     </row>
     <row r="45">
@@ -3588,19 +3588,19 @@
         <v>139328</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>115464</v>
+        <v>118482</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>168689</v>
+        <v>169295</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.08895563504512854</v>
+        <v>0.08895563504512853</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.07371919696580689</v>
+        <v>0.07564584590401097</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.10770154992216</v>
+        <v>0.1080879454771879</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>240</v>
@@ -3609,19 +3609,19 @@
         <v>161669</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>141602</v>
+        <v>142332</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>184875</v>
+        <v>183174</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.09537467711000275</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.08353628697723874</v>
+        <v>0.08396710553407964</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1090644070825559</v>
+        <v>0.108060914616881</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>362</v>
@@ -3630,19 +3630,19 @@
         <v>300998</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>267441</v>
+        <v>271248</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>335114</v>
+        <v>339457</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.09229193815149594</v>
+        <v>0.09229193815149593</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.08200278721056359</v>
+        <v>0.08317002843947749</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1027526131086746</v>
+        <v>0.1040842708671855</v>
       </c>
     </row>
     <row r="46">
@@ -3659,19 +3659,19 @@
         <v>30989</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>20664</v>
+        <v>20523</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>48000</v>
+        <v>47506</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01978501280609443</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01319297102126555</v>
+        <v>0.01310315993580404</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03064605762150735</v>
+        <v>0.03033053872227863</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>57</v>
@@ -3680,19 +3680,19 @@
         <v>40555</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>30099</v>
+        <v>31664</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>52943</v>
+        <v>54494</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0239245970440442</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01775663975896202</v>
+        <v>0.01867946915827876</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03123291101181316</v>
+        <v>0.03214814241717585</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>83</v>
@@ -3701,19 +3701,19 @@
         <v>71543</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>56397</v>
+        <v>56184</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>91669</v>
+        <v>90047</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02193656557869836</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01729242567497289</v>
+        <v>0.01722716455307975</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02810764316938556</v>
+        <v>0.027610224062752</v>
       </c>
     </row>
     <row r="47">
@@ -3730,19 +3730,19 @@
         <v>8631</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3755</v>
+        <v>4142</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>16366</v>
+        <v>17806</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.005510759032703635</v>
+        <v>0.005510759032703634</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.002397390635716575</v>
+        <v>0.002644483169476934</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01044900739447415</v>
+        <v>0.01136871582769895</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>32</v>
@@ -3751,19 +3751,19 @@
         <v>20929</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>14484</v>
+        <v>13730</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>30403</v>
+        <v>29100</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01234686822717714</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.008544719195993726</v>
+        <v>0.008099540965630434</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01793577330558031</v>
+        <v>0.01716700591517368</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>40</v>
@@ -3772,19 +3772,19 @@
         <v>29560</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>20731</v>
+        <v>20701</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>40154</v>
+        <v>40222</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.009063833169075669</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.006356458853345961</v>
+        <v>0.006347353080238895</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.0123121623970247</v>
+        <v>0.01233277765215794</v>
       </c>
     </row>
     <row r="48">
